--- a/example/questionario.xlsx
+++ b/example/questionario.xlsx
@@ -8,19 +8,18 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio15" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Foglio2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Foglio3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Foglio4" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Foglio6" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Foglio7" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Foglio8" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Foglio9" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Foglio10" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Foglio11" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Foglio12" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Foglio13" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Foglio14" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Foglio2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Foglio3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Foglio4" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Foglio6" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Foglio7" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Foglio8" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Foglio9" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Foglio10" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Foglio11" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Foglio12" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Foglio13" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Foglio14" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -32,16 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
-  <si>
-    <t xml:space="preserve">corrette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">non date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">errate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t xml:space="preserve">Il modulo del vettore $\vec{A}(3;4)$ è</t>
   </si>
@@ -301,264 +291,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>1943</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="61.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,41 +329,139 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -628,48 +472,97 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -680,34 +573,83 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="57.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -729,34 +671,34 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -778,86 +720,86 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="77.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -882,31 +824,31 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>34</v>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -928,34 +870,34 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>1943</v>
       </c>
     </row>
   </sheetData>
